--- a/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD4DE1-3963-4215-B6F6-31F8E38E1A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D79E2-D0DA-4D08-938C-1046B04323A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1006,10 +1006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이펙트 테이블((Effect_Table.xlsx)의 ID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1026,11 +1022,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 효과의 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trigger_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트 테이블(Effect_Table.xlsx)의 ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,7 +1043,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스킬 효과가 발동되는 시간</t>
+      <t>효과가 발동되는 시간</t>
     </r>
     <r>
       <rPr>
@@ -1058,7 +1058,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 효과가 적용되는 데이터의 값</t>
+    <t>효과의 지속 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,7 +1071,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스킬 효과의 parameter</t>
+      <t>효과의 parameter</t>
     </r>
     <r>
       <rPr>
@@ -1085,6 +1085,19 @@
 예시) hit_cnt : 타격 횟수 // hit_interval : 타격 간격 // internal_cooldown : 효과 적용 간격(내부 쿨)
 // max_stack : 최대 중첩 개수 // dispellable : 해제 가능 여부</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 적용되는 parameter의 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">효과 발동 조건
+ON_HIT: 적중시 / ON_USE: 스킬 시전시 / END_USE: 시전 완료 시 / </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1674,17 +1687,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -2028,11 +2041,11 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
@@ -2110,24 +2123,30 @@
         <v>5</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C9" s="12"/>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>31</v>
@@ -2137,20 +2156,20 @@
     <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="38" t="s">
@@ -2161,13 +2180,13 @@
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="7"/>
     </row>

--- a/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D79E2-D0DA-4D08-938C-1046B04323A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06342228-6A7C-49EB-888B-9F948FBD1C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1030,10 +1030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trigger_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1096,8 +1092,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">효과 발동 조건
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>효과 발동 조건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
 ON_HIT: 적중시 / ON_USE: 스킬 시전시 / END_USE: 시전 완료 시 / </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2024,7 +2052,7 @@
   <dimension ref="B1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -2130,13 +2158,13 @@
     <row r="8" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -2149,7 +2177,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -2162,7 +2190,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -2171,9 +2199,11 @@
       <c r="D11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -2183,10 +2213,10 @@
         <v>25</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7"/>
     </row>

--- a/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B9A8C8-E5D5-4230-924B-5D02F4E123C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356D0FD-6617-4C7C-A5FD-34A46EA2D413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,320 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>홍진선</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{4995B60B-8438-4D5E-AF4C-07D21607FADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>효과 발동 조건:
+ON_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_HIT_RECEIVED</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 피격 시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ON_USE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 사용 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_DEATH</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 사망 시
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>효과 적용 영역:
+DEFAULT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 타격 대상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CIRCLE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 원형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>RECTANGLE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 사각형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>TRIANGLE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 삼각형
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PROJECTILE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 투사체</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+MELEE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 근접</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{7EB45416-5EF7-4E02-9043-81695C4F655B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">효과 적용 방식:
+IN_AREA </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 대상이 영역 내에 위치하는 동안에 효과 적용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>MAINTAIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 대상이 영역을 벗어나도 효과 유지
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,33 +480,6 @@
   </si>
   <si>
     <t>스킬_이펙트 테이블의 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>효과 발동 조건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-ON_HIT: 적중시 / ON_USE: 스킬 시전시 / END_USE: 시전 완료 시 / </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,22 +537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[5315, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6377, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6910, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10633, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>넉다운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[damage, hit_cnt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[KNOCK_DOWN]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +606,74 @@
   </si>
   <si>
     <t>[state]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage, hit_cnt, stagger]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5315,1,21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10633,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6910,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6377,2,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 적용 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 발동 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIRCLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_in_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 내 계속 위치해야 효과가 적용되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여기서 부터 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,9 +684,9 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +781,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -723,13 +1090,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,15 +1127,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,11 +1208,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,407 +1556,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
+  <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="83.09765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="3.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="83.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="16" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="20" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="23" t="s">
+      <c r="F5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="35" t="s">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="29"/>
+      <c r="D13" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="2:8" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34" t="s">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="38"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C32" s="2"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="2"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C35" s="2"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C36" s="2"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C37" s="2"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C38" s="2"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C39" s="2"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C40" s="2"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C42" s="2"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C43" s="2"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C44" s="2"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C45" s="2"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C46" s="2"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C48" s="2"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C49" s="2"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C50" s="2"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C51" s="2"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C52" s="2"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C54" s="2"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C55" s="2"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C56" s="2"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C57" s="2"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C58" s="2"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C59" s="2"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C60" s="2"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C61" s="2"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C62" s="2"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C63" s="2"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C64" s="2"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C65" s="2"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C66" s="2"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C67" s="2"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C68" s="2"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C69" s="2"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C70" s="2"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C71" s="2"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C72" s="2"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C73" s="2"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C74" s="2"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C75" s="2"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C76" s="2"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C77" s="2"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C78" s="2"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C79" s="2"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C80" s="2"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C81" s="2"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" s="2"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C83" s="2"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C86" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1589,603 +2008,579 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="44" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="18.69921875" style="10" customWidth="1"/>
-    <col min="12" max="13" width="15.69921875" style="10" customWidth="1"/>
-    <col min="14" max="16" width="15.69921875" style="11" customWidth="1"/>
-    <col min="17" max="18" width="15.69921875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="18.69921875" style="10" customWidth="1"/>
-    <col min="20" max="23" width="15.69921875" style="11" customWidth="1"/>
-    <col min="24" max="27" width="18.69921875" style="10" customWidth="1"/>
-    <col min="28" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="2" width="18.796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="22.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="9" customWidth="1"/>
+    <col min="15" max="17" width="15.69921875" style="10" customWidth="1"/>
+    <col min="18" max="19" width="15.69921875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="18.69921875" style="9" customWidth="1"/>
+    <col min="21" max="24" width="15.69921875" style="10" customWidth="1"/>
+    <col min="25" max="28" width="18.69921875" style="9" customWidth="1"/>
+    <col min="29" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C3" s="6">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="6">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="M5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
-      <c r="E2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="7">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="7">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7">
-        <v>103</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0.4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7">
-        <v>104</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D7" s="7"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D8" s="7"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D9" s="7"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D10" s="7"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D12" s="7"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="14" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="D16" s="7"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="14" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="D16" s="6"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
+++ b/로스트아크/데이터테이블/Skill-Effect_Table(수정중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356D0FD-6617-4C7C-A5FD-34A46EA2D413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B1E9CD-F908-4AA4-A034-978CEA6AEDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -55,6 +55,31 @@
             <scheme val="minor"/>
           </rPr>
           <t>효과 발동 조건:
+ON_TIME</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 시간 도달 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
 ON_HIT</t>
         </r>
         <r>
@@ -79,6 +104,30 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
+          <t>ON_CRIT_HIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 치명타 공격 적중 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>ON_HIT_RECEIVED</t>
         </r>
         <r>
@@ -103,18 +152,66 @@
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-ON_USE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 스킬 사용 시
+ON_SKILL_CAST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 시전 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WHILE_CAST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 시전 중</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+ON_SKILL_USE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 스킬 사용 시 (=시전 완료 시)
 </t>
         </r>
         <r>
@@ -141,9 +238,105 @@
           <t xml:space="preserve"> : 사망 시
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_KILL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 대상 처치 시 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_AREA_ENTER</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 효과 적용 영역 내 위치 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>ON_AREA_EXIT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 영역 밖으로 나갈 시
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>WHILE_IN_AREA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 영역 내 위치하는 동안 
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{06D51FCE-9950-4894-A80D-C240EF683389}">
       <text>
         <r>
           <rPr>
@@ -156,18 +349,18 @@
             <scheme val="minor"/>
           </rPr>
           <t>효과 적용 영역:
-DEFAULT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 타격 대상
+HIT_TARGET</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 공격 적중 대상
 </t>
         </r>
         <r>
@@ -180,6 +373,78 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
+          <t>AROUND</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 주변 일정 거리 내의 대상 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>MELEE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> : 근접
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">PROJECTILE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: 발사체
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>CIRCLE</t>
         </r>
         <r>
@@ -191,7 +456,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 원형
+          <t xml:space="preserve"> : 원형 범위 전체
 </t>
         </r>
         <r>
@@ -215,7 +480,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 사각형
+          <t xml:space="preserve"> : 사각형 범위 전체
 </t>
         </r>
         <r>
@@ -239,7 +504,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> : 삼각형
+          <t xml:space="preserve"> : 삼각형 범위 전체
 </t>
         </r>
         <r>
@@ -252,94 +517,7 @@
             <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PROJECTILE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 투사체</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
           <t xml:space="preserve">
-MELEE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 근접</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{7EB45416-5EF7-4E02-9043-81695C4F655B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">효과 적용 방식:
-IN_AREA </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">: 대상이 영역 내에 위치하는 동안에 효과 적용
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>MAINTAIN</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> : 대상이 영역을 벗어나도 효과 유지
 </t>
         </r>
       </text>
@@ -349,7 +527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +602,6 @@
   </si>
   <si>
     <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -645,10 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apply_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,15 +835,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_in_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영역 내 계속 위치해야 효과가 적용되는지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">여기서 부터 </t>
+    <t>condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +848,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,17 +968,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,8 +1012,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1084,6 +1243,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1097,9 +1271,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,6 +1385,12 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,17 +1400,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,275 +1731,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:H86"/>
+  <dimension ref="B1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.69921875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="10" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="83.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="5"/>
+    <col min="6" max="6" width="89.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="41" t="s">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="12" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C11" s="28"/>
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="28"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="33"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="29"/>
-      <c r="D9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="29"/>
-      <c r="D13" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="29"/>
-      <c r="D16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C17" s="29"/>
-      <c r="D17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="34"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C27" s="1"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C29" s="1"/>
@@ -2000,6 +2177,15 @@
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C89" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2017,566 +2203,566 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="18.796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="18.796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11.5" style="40" customWidth="1"/>
-    <col min="12" max="12" width="22.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.69921875" style="9" customWidth="1"/>
-    <col min="15" max="17" width="15.69921875" style="10" customWidth="1"/>
-    <col min="18" max="19" width="15.69921875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="18.69921875" style="9" customWidth="1"/>
-    <col min="21" max="24" width="15.69921875" style="10" customWidth="1"/>
-    <col min="25" max="28" width="18.69921875" style="9" customWidth="1"/>
-    <col min="29" max="16384" width="8.796875" style="5"/>
+    <col min="8" max="11" width="11.5" style="39" customWidth="1"/>
+    <col min="12" max="12" width="22.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.69921875" style="8" customWidth="1"/>
+    <col min="15" max="17" width="15.69921875" style="9" customWidth="1"/>
+    <col min="18" max="19" width="15.69921875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="18.69921875" style="8" customWidth="1"/>
+    <col min="21" max="24" width="15.69921875" style="9" customWidth="1"/>
+    <col min="25" max="28" width="18.69921875" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5">
         <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>100000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>0.1</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>67</v>
+      <c r="J2" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5">
         <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>100000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>0.4</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>68</v>
+      <c r="J3" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5">
         <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>100000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>0.4</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>0.4</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>68</v>
+      <c r="J4" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5">
         <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>100000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1">
         <v>0.8</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>0.4</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>68</v>
+      <c r="J5" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5">
         <v>104</v>
       </c>
       <c r="D6" s="1">
         <v>100000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="39">
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+    <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="14" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+    <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
+    <row r="17" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
